--- a/ExcelConverter/ExcelFiles/GimmickTable.xlsx
+++ b/ExcelConverter/ExcelFiles/GimmickTable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>테이블 설명: 스테이지에 들어가는 기믹을 설명하는 테이블</t>
   </si>
@@ -110,29 +110,20 @@
     <t>1-3 등장 [ 경로에 따라 자동으로 움직이는 플랫폼]</t>
   </si>
   <si>
-    <t>Lever_Ob</t>
-  </si>
-  <si>
     <t>Lever</t>
   </si>
   <si>
-    <t>Disappearing_Platform</t>
+    <t>DisappearPlatform</t>
   </si>
   <si>
     <t>1-2,1-4 등장 [ 플레이어가 밟으면 사라지는 플랫폼]</t>
-  </si>
-  <si>
-    <t>Lever_Darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-2 등장 [어두운 맵에 레버를 당겨 일시적으로 밝은 맵을 만드는 기믹]			</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -157,10 +148,6 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF444447"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -214,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -252,10 +239,7 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -742,56 +726,40 @@
         <v>32</v>
       </c>
       <c r="C5" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>21</v>
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11">
+      <c r="A6" s="5">
         <v>4.0</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>23</v>
+      <c r="C6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -803,10 +771,10 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="6"/>
@@ -826,18 +794,6 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
